--- a/data/trans_dic/MCS12_SP_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,7%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>13,44%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 13,71</t>
+          <t>3,8; 13,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,8; 27,4</t>
+          <t>14,95; 27,8</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 18,17</t>
+          <t>9,88; 17,66</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>14,97%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,15; 15,85</t>
+          <t>7,93; 15,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,49; 25,08</t>
+          <t>11,01; 22,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 19,39</t>
+          <t>11,38; 18,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>20,06%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>19,0%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 21,82</t>
+          <t>14,79; 21,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 23,07</t>
+          <t>17,56; 22,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,97; 21,36</t>
+          <t>16,75; 21,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,58; 24,17</t>
+          <t>6,6; 23,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,98; 29,91</t>
+          <t>21,34; 28,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 26,07</t>
+          <t>12,05; 24,8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,42%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,47%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,95%</t>
+          <t>27,58%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,38; 27,88</t>
+          <t>21,03; 27,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,76; 34,44</t>
+          <t>28,53; 34,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,76; 30,09</t>
+          <t>25,4; 29,75</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>30,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>36,95%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,04%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>43,3%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>23,09; 31,24</t>
+          <t>21,94; 31,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,23; 32,39</t>
+          <t>20,15; 30,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,34; 25,99</t>
+          <t>14,46; 22,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,47; 31,08</t>
+          <t>21,48; 28,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,74; 35,12</t>
+          <t>26,56; 36,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,31; 45,51</t>
+          <t>31,72; 42,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>33,74; 41,04</t>
+          <t>29,76; 40,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,32; 64,27</t>
+          <t>30,16; 83,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26,81; 32,0</t>
+          <t>25,79; 32,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33,18; 38,69</t>
+          <t>27,87; 35,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,22; 33,5</t>
+          <t>23,76; 30,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>33,13; 52,05</t>
+          <t>27,16; 70,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>43,4%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>29,94%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>25,18%</t>
+          <t>38,68%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>21,4; 33,17</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>26,2; 38,26</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23,57; 33,66</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27,22; 36,46</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>26,72; 37,39</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>40,86; 51,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>33,14; 44,66</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>39,95; 46,86</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26,07; 33,83</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>36,81; 44,81</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>31,19; 39,11</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>36,05; 41,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>22,28%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>26,55%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26,77%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>22,65%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>22,9%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>24,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>17,28; 19,96</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>20,95; 23,86</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>17,61; 20,22</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>18,22; 21,57</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 20,46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>25,04; 27,96</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>31,04; 34,38</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>25,3; 28,41</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>27,21; 37,59</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>26,13; 44,18</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>21,66; 23,63</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>26,52; 28,64</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>21,93; 24,0</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>23,53; 28,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>21,79; 30,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/MCS12_SP_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 14,98</t>
+          <t>9,14; 14,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,88; 19,7</t>
+          <t>12,81; 19,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,06; 14,48</t>
+          <t>8,29; 14,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 13,16</t>
+          <t>3,84; 13,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,25; 22,25</t>
+          <t>15,14; 22,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,63; 21,94</t>
+          <t>14,46; 22,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,36</t>
+          <t>9,61; 16,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 27,8</t>
+          <t>15,33; 27,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,88; 17,4</t>
+          <t>12,74; 17,6</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,77; 19,58</t>
+          <t>14,64; 19,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,49; 13,94</t>
+          <t>9,64; 14,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,66</t>
+          <t>9,96; 17,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 15,8</t>
+          <t>10,72; 15,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,13</t>
+          <t>15,46; 21,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,6</t>
+          <t>12,61; 18,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 15,72</t>
+          <t>7,82; 16,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 25,03</t>
+          <t>18,6; 25,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,76; 26,95</t>
+          <t>19,96; 26,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,9</t>
+          <t>14,82; 20,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 22,62</t>
+          <t>11,09; 22,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,27</t>
+          <t>15,1; 19,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,26; 22,81</t>
+          <t>18,11; 22,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 18,92</t>
+          <t>14,63; 18,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 18,14</t>
+          <t>11,23; 17,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,95; 24,23</t>
+          <t>17,73; 24,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,67; 26,43</t>
+          <t>19,71; 26,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 20,81</t>
+          <t>14,77; 20,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 21,39</t>
+          <t>14,69; 21,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,68; 28,46</t>
+          <t>21,59; 28,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,5; 37,3</t>
+          <t>29,52; 37,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,31; 25,72</t>
+          <t>19,37; 25,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 22,9</t>
+          <t>17,35; 22,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,87; 25,44</t>
+          <t>20,73; 25,53</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 30,69</t>
+          <t>25,69; 30,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,01; 22,3</t>
+          <t>17,76; 22,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 21,09</t>
+          <t>16,81; 21,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,84; 20,6</t>
+          <t>13,66; 20,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 25,77</t>
+          <t>18,99; 26,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,48; 26,5</t>
+          <t>19,92; 26,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,6; 23,73</t>
+          <t>6,43; 23,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>26,76; 34,87</t>
+          <t>26,33; 34,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,63; 39,71</t>
+          <t>31,28; 39,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,94; 34,16</t>
+          <t>26,54; 34,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,34; 28,41</t>
+          <t>21,68; 28,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,3; 26,5</t>
+          <t>21,48; 26,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,94; 31,54</t>
+          <t>26,22; 31,84</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 29,24</t>
+          <t>23,91; 29,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,05; 24,8</t>
+          <t>11,36; 24,66</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,3; 29,92</t>
+          <t>21,17; 29,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,76; 31,69</t>
+          <t>22,53; 31,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,83; 25,68</t>
+          <t>18,13; 25,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,03; 27,49</t>
+          <t>20,88; 27,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,12; 37,52</t>
+          <t>28,14; 37,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>35,14; 44,78</t>
+          <t>34,96; 44,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,58; 38,18</t>
+          <t>29,35; 38,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>28,53; 34,13</t>
+          <t>28,38; 34,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,19; 32,35</t>
+          <t>26,0; 32,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,3; 36,83</t>
+          <t>30,07; 36,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,41; 30,53</t>
+          <t>24,73; 30,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,4; 29,75</t>
+          <t>25,29; 29,7</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,94; 31,93</t>
+          <t>22,59; 32,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,15; 30,43</t>
+          <t>19,95; 30,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 22,79</t>
+          <t>14,14; 22,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,48; 28,34</t>
+          <t>21,38; 28,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,56; 36,03</t>
+          <t>26,03; 35,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,72; 42,2</t>
+          <t>31,87; 41,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,76; 40,12</t>
+          <t>30,06; 40,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,16; 83,3</t>
+          <t>29,79; 80,61</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,79; 32,43</t>
+          <t>25,56; 32,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>27,87; 35,13</t>
+          <t>27,72; 35,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,76; 30,33</t>
+          <t>23,62; 30,7</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>27,16; 70,57</t>
+          <t>27,38; 68,78</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>21,4; 33,17</t>
+          <t>21,31; 33,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,2; 38,26</t>
+          <t>25,66; 38,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,57; 33,66</t>
+          <t>23,35; 34,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,22; 36,46</t>
+          <t>27,51; 36,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,72; 37,39</t>
+          <t>26,44; 37,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>40,86; 51,42</t>
+          <t>41,05; 51,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,14; 44,66</t>
+          <t>33,59; 45,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>39,95; 46,86</t>
+          <t>40,16; 46,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,07; 33,83</t>
+          <t>26,32; 34,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>36,81; 44,81</t>
+          <t>36,78; 44,8</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>31,19; 39,11</t>
+          <t>30,78; 38,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>36,05; 41,32</t>
+          <t>36,01; 41,41</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,28; 19,96</t>
+          <t>17,32; 20,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,86</t>
+          <t>20,83; 23,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,61; 20,22</t>
+          <t>17,49; 20,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,2; 20,46</t>
+          <t>14,1; 20,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>25,04; 27,96</t>
+          <t>24,9; 28,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,04; 34,38</t>
+          <t>31,08; 34,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,3; 28,41</t>
+          <t>25,34; 28,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,13; 44,18</t>
+          <t>26,16; 43,29</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,66; 23,63</t>
+          <t>21,7; 23,73</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>26,52; 28,64</t>
+          <t>26,45; 28,57</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>21,93; 24,0</t>
+          <t>21,91; 23,92</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,79; 30,88</t>
+          <t>21,89; 32,04</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil de la puntuación del componente de salud mental (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>58355</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72005</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46670</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30298</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86423</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>77778</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>49957</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>65376</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>144778</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>149783</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>96627</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>95674</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>45180; 73180</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58191; 89617</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34792; 60662</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15349; 53520</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>70760; 104436</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>62231; 94961</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38016; 65638</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47761; 86982</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>122542; 169254</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>129440; 176398</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>78560; 117014</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>70906; 126140</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>97155</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>123725</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>90682</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>49609</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>135548</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>141519</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99042</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>90251</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>232703</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>265245</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>189724</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>139860</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>78814; 116724</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>106212; 147930</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>74478; 108974</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33127; 68872</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>116370; 159083</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121799; 163798</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>83494; 118015</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>56662; 113074</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>205541; 262850</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>234988; 295749</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>168828; 217426</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>104978; 168101</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>135046</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>156895</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>118600</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>96044</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>171874</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>235654</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>148123</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>108654</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>306920</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>392548</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>266723</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>204699</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>113234; 156312</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>134429; 178879</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>98847; 138587</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>78649; 114903</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>148887; 194989</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>209810; 264251</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>128107; 171020</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>93989; 123873</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>275411; 339170</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>357730; 426961</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>236327; 294018</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>181051; 228638</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>87873</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>137197</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>148151</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>143934</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>158949</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>218723</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>197203</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>180563</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>246821</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>355920</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>345354</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>324497</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>70900; 105859</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>116701; 161460</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>128671; 172543</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56915; 211660</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>135782; 177836</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>192776; 244784</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>172278; 221278</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>153787; 204389</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>222252; 277426</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>322778; 391837</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>309603; 376111</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>181141; 393299</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>96758</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>115274</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>102473</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>133386</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>132617</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>178090</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>167250</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>170156</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>229374</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>293363</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>269723</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>303542</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81863; 115105</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>96735; 134298</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86670; 122034</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>115894; 154167</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>113695; 151428</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>156537; 201307</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>145845; 189387</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>154858; 186434</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>205543; 254099</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>263756; 323890</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>241091; 298149</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>278372; 326831</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>78974</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>78209</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>60918</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>90233</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>105309</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>130754</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>132031</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>329932</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>184283</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>208964</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>192950</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>420165</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>66086; 95333</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>61793; 93323</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>47282; 76622</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>77763; 103726</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>89279; 121364</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>112833; 147889</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>113568; 151696</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>180746; 489042</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>162429; 205923</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>184029; 234097</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>168196; 218578</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>265674; 667429</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>56380</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>80273</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>72729</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>88739</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>106418</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>180175</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>155409</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>181291</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>162797</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>260448</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>228138</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>270029</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>44735; 69486</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>64109; 95874</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>60003; 87831</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>77148; 101475</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>88271; 123806</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>159667; 200257</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>134420; 180205</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>167748; 196282</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>143137; 185401</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>234937; 286175</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>202289; 253618</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>251362; 289108</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>868</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1072</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>879</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1580</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1492</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>610539</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>763578</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>640223</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>632243</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>897137</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1162693</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>949015</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1126222</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1507677</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1926272</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1589239</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1758466</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>567515; 656212</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>713821; 814262</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>593816; 685543</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>485466; 699541</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>841377; 950929</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1105945; 1228193</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>898089; 1003188</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>953102; 1577346</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1444252; 1579259</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1847857; 1995433</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1519999; 1660006</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1551484; 2271052</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>